--- a/tables/outlier_final_stats_nonag.xlsx
+++ b/tables/outlier_final_stats_nonag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>SITE_TYPE</t>
   </si>
@@ -47,18 +47,6 @@
     <t>MEAN10SD</t>
   </si>
   <si>
-    <t>Mean8SD</t>
-  </si>
-  <si>
-    <t>Mean5SD</t>
-  </si>
-  <si>
-    <t>Mean12SD</t>
-  </si>
-  <si>
-    <t>Mean10SD</t>
-  </si>
-  <si>
     <t>NORMAL</t>
   </si>
   <si>
@@ -84,6 +72,9 @@
   </si>
   <si>
     <t>LBS_AI_APP_TYPE</t>
+  </si>
+  <si>
+    <t>MEAN12SD</t>
   </si>
 </sst>
 </file>
@@ -415,7 +406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -427,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -441,10 +434,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>2500</v>
@@ -455,10 +448,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>7500</v>
@@ -469,10 +462,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>25000</v>
@@ -483,10 +476,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>7500</v>
@@ -497,10 +490,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>5000</v>
@@ -511,10 +504,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>7000</v>
@@ -525,10 +518,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>20000</v>
@@ -539,10 +532,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>7000</v>
@@ -553,10 +546,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>5000</v>
@@ -567,10 +560,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>7000</v>
@@ -581,10 +574,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>20000</v>
@@ -595,10 +588,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>7000</v>
@@ -609,58 +602,58 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>5000</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>8000</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>30000</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>8000</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
